--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fn1-Sdc2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fn1-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H2">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I2">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J2">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.997386032128483</v>
+        <v>0.9991829999999999</v>
       </c>
       <c r="N2">
-        <v>0.997386032128483</v>
+        <v>1.998366</v>
       </c>
       <c r="O2">
-        <v>0.01575351394248427</v>
+        <v>0.01488714493203248</v>
       </c>
       <c r="P2">
-        <v>0.01575351394248427</v>
+        <v>0.01137801272088475</v>
       </c>
       <c r="Q2">
-        <v>39.40489903718694</v>
+        <v>40.70167504135649</v>
       </c>
       <c r="R2">
-        <v>39.40489903718694</v>
+        <v>162.806700165426</v>
       </c>
       <c r="S2">
-        <v>0.00107595153970005</v>
+        <v>0.0008288971510212836</v>
       </c>
       <c r="T2">
-        <v>0.00107595153970005</v>
+        <v>0.0004353986427903708</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H3">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I3">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J3">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>36.9720630093316</v>
+        <v>39.565288</v>
       </c>
       <c r="N3">
-        <v>36.9720630093316</v>
+        <v>118.695864</v>
       </c>
       <c r="O3">
-        <v>0.5839663794538508</v>
+        <v>0.5894957947979553</v>
       </c>
       <c r="P3">
-        <v>0.5839663794538508</v>
+        <v>0.6758136650185235</v>
       </c>
       <c r="Q3">
-        <v>1460.698629366358</v>
+        <v>1611.690246024684</v>
       </c>
       <c r="R3">
-        <v>1460.698629366358</v>
+        <v>9670.141476148103</v>
       </c>
       <c r="S3">
-        <v>0.03988440467316783</v>
+        <v>0.03282237037913634</v>
       </c>
       <c r="T3">
-        <v>0.03988440467316783</v>
+        <v>0.02586113759463004</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H4">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I4">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J4">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.4251159554415</v>
+        <v>0.06171066666666666</v>
       </c>
       <c r="N4">
-        <v>1.4251159554415</v>
+        <v>0.185132</v>
       </c>
       <c r="O4">
-        <v>0.02250942298218628</v>
+        <v>0.0009194468265763251</v>
       </c>
       <c r="P4">
-        <v>0.02250942298218628</v>
+        <v>0.001054078307498645</v>
       </c>
       <c r="Q4">
-        <v>56.30372647250233</v>
+        <v>2.513781260542</v>
       </c>
       <c r="R4">
-        <v>56.30372647250233</v>
+        <v>15.082687563252</v>
       </c>
       <c r="S4">
-        <v>0.001537374353675391</v>
+        <v>5.119362097596146E-05</v>
       </c>
       <c r="T4">
-        <v>0.001537374353675391</v>
+        <v>4.033606533391128E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H5">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I5">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J5">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.9174069079012</v>
+        <v>1.772676333333334</v>
       </c>
       <c r="N5">
-        <v>23.9174069079012</v>
+        <v>5.318029000000001</v>
       </c>
       <c r="O5">
-        <v>0.3777706836214788</v>
+        <v>0.0264116678245299</v>
       </c>
       <c r="P5">
-        <v>0.3777706836214788</v>
+        <v>0.03027903878070085</v>
       </c>
       <c r="Q5">
-        <v>944.9330290157468</v>
+        <v>72.20989155423651</v>
       </c>
       <c r="R5">
-        <v>944.9330290157468</v>
+        <v>433.2593493254191</v>
       </c>
       <c r="S5">
-        <v>0.02580141485766653</v>
+        <v>0.001470567816288764</v>
       </c>
       <c r="T5">
-        <v>0.02580141485766653</v>
+        <v>0.001158677944340443</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>330.770233336439</v>
+        <v>40.7349555</v>
       </c>
       <c r="H6">
-        <v>330.770233336439</v>
+        <v>81.469911</v>
       </c>
       <c r="I6">
-        <v>0.5718139577408378</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J6">
-        <v>0.5718139577408378</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.997386032128483</v>
+        <v>24.7183095</v>
       </c>
       <c r="N6">
-        <v>0.997386032128483</v>
+        <v>49.436619</v>
       </c>
       <c r="O6">
-        <v>0.01575351394248427</v>
+        <v>0.3682859456189059</v>
       </c>
       <c r="P6">
-        <v>0.01575351394248427</v>
+        <v>0.2814752051723923</v>
       </c>
       <c r="Q6">
-        <v>329.9056105736433</v>
+        <v>1006.899237517727</v>
       </c>
       <c r="R6">
-        <v>329.9056105736433</v>
+        <v>4027.596950070909</v>
       </c>
       <c r="S6">
-        <v>0.0090080791557774</v>
+        <v>0.02050568947091006</v>
       </c>
       <c r="T6">
-        <v>0.0090080791557774</v>
+        <v>0.01077111841211503</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H7">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I7">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J7">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>36.9720630093316</v>
+        <v>0.9991829999999999</v>
       </c>
       <c r="N7">
-        <v>36.9720630093316</v>
+        <v>1.998366</v>
       </c>
       <c r="O7">
-        <v>0.5839663794538508</v>
+        <v>0.01488714493203248</v>
       </c>
       <c r="P7">
-        <v>0.5839663794538508</v>
+        <v>0.01137801272088475</v>
       </c>
       <c r="Q7">
-        <v>12229.25790852614</v>
+        <v>350.10563647892</v>
       </c>
       <c r="R7">
-        <v>12229.25790852614</v>
+        <v>2100.63381887352</v>
       </c>
       <c r="S7">
-        <v>0.3339201266230943</v>
+        <v>0.007129966133801608</v>
       </c>
       <c r="T7">
-        <v>0.3339201266230943</v>
+        <v>0.005617785464650758</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H8">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I8">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J8">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.4251159554415</v>
+        <v>39.565288</v>
       </c>
       <c r="N8">
-        <v>1.4251159554415</v>
+        <v>118.695864</v>
       </c>
       <c r="O8">
-        <v>0.02250942298218628</v>
+        <v>0.5894957947979553</v>
       </c>
       <c r="P8">
-        <v>0.02250942298218628</v>
+        <v>0.6758136650185235</v>
       </c>
       <c r="Q8">
-        <v>471.3859371128672</v>
+        <v>13863.35670013579</v>
       </c>
       <c r="R8">
-        <v>471.3859371128672</v>
+        <v>124770.2103012221</v>
       </c>
       <c r="S8">
-        <v>0.01287120224190651</v>
+        <v>0.2823298269827521</v>
       </c>
       <c r="T8">
-        <v>0.01287120224190651</v>
+        <v>0.3336765634990603</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H9">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I9">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J9">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>23.9174069079012</v>
+        <v>0.06171066666666666</v>
       </c>
       <c r="N9">
-        <v>23.9174069079012</v>
+        <v>0.185132</v>
       </c>
       <c r="O9">
-        <v>0.3777706836214788</v>
+        <v>0.0009194468265763251</v>
       </c>
       <c r="P9">
-        <v>0.3777706836214788</v>
+        <v>0.001054078307498645</v>
       </c>
       <c r="Q9">
-        <v>7911.166263729037</v>
+        <v>21.62291815500445</v>
       </c>
       <c r="R9">
-        <v>7911.166263729037</v>
+        <v>194.60626339504</v>
       </c>
       <c r="S9">
-        <v>0.2160145497200597</v>
+        <v>0.000440354733244714</v>
       </c>
       <c r="T9">
-        <v>0.2160145497200597</v>
+        <v>0.0005204411297238465</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>124.704849261112</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H10">
-        <v>124.704849261112</v>
+        <v>1051.17572</v>
       </c>
       <c r="I10">
-        <v>0.2155815917478311</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J10">
-        <v>0.2155815917478311</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.997386032128483</v>
+        <v>1.772676333333334</v>
       </c>
       <c r="N10">
-        <v>0.997386032128483</v>
+        <v>5.318029000000001</v>
       </c>
       <c r="O10">
-        <v>0.01575351394248427</v>
+        <v>0.0264116678245299</v>
       </c>
       <c r="P10">
-        <v>0.01575351394248427</v>
+        <v>0.03027903878070085</v>
       </c>
       <c r="Q10">
-        <v>124.3788747917211</v>
+        <v>621.1314403395423</v>
       </c>
       <c r="R10">
-        <v>124.3788747917211</v>
+        <v>5590.18296305588</v>
       </c>
       <c r="S10">
-        <v>0.00339616761134241</v>
+        <v>0.01264945682908764</v>
       </c>
       <c r="T10">
-        <v>0.00339616761134241</v>
+        <v>0.01494998714789544</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,55 +1092,55 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>124.704849261112</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H11">
-        <v>124.704849261112</v>
+        <v>1051.17572</v>
       </c>
       <c r="I11">
-        <v>0.2155815917478311</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J11">
-        <v>0.2155815917478311</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>36.9720630093316</v>
+        <v>24.7183095</v>
       </c>
       <c r="N11">
-        <v>36.9720630093316</v>
+        <v>49.436619</v>
       </c>
       <c r="O11">
-        <v>0.5839663794538508</v>
+        <v>0.3682859456189059</v>
       </c>
       <c r="P11">
-        <v>0.5839663794538508</v>
+        <v>0.2814752051723923</v>
       </c>
       <c r="Q11">
-        <v>4610.595544451032</v>
+        <v>8661.09559528178</v>
       </c>
       <c r="R11">
-        <v>4610.595544451032</v>
+        <v>51966.57357169068</v>
       </c>
       <c r="S11">
-        <v>0.1258924016098791</v>
+        <v>0.1763848160145104</v>
       </c>
       <c r="T11">
-        <v>0.1258924016098791</v>
+        <v>0.1389757029691646</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,55 +1154,55 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H12">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I12">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J12">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.4251159554415</v>
+        <v>0.9991829999999999</v>
       </c>
       <c r="N12">
-        <v>1.4251159554415</v>
+        <v>1.998366</v>
       </c>
       <c r="O12">
-        <v>0.02250942298218628</v>
+        <v>0.01488714493203248</v>
       </c>
       <c r="P12">
-        <v>0.02250942298218628</v>
+        <v>0.01137801272088475</v>
       </c>
       <c r="Q12">
-        <v>177.7188704029379</v>
+        <v>243.62949528271</v>
       </c>
       <c r="R12">
-        <v>177.7188704029379</v>
+        <v>1461.77697169626</v>
       </c>
       <c r="S12">
-        <v>0.004852617235824932</v>
+        <v>0.004961559796725783</v>
       </c>
       <c r="T12">
-        <v>0.004852617235824932</v>
+        <v>0.003909272216021053</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H13">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I13">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J13">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>23.9174069079012</v>
+        <v>39.565288</v>
       </c>
       <c r="N13">
-        <v>23.9174069079012</v>
+        <v>118.695864</v>
       </c>
       <c r="O13">
-        <v>0.3777706836214788</v>
+        <v>0.5894957947979553</v>
       </c>
       <c r="P13">
-        <v>0.3777706836214788</v>
+        <v>0.6758136650185235</v>
       </c>
       <c r="Q13">
-        <v>2982.616623166498</v>
+        <v>9647.152870049895</v>
       </c>
       <c r="R13">
-        <v>2982.616623166498</v>
+        <v>86824.37583044905</v>
       </c>
       <c r="S13">
-        <v>0.08144040529078471</v>
+        <v>0.1964660550536559</v>
       </c>
       <c r="T13">
-        <v>0.08144040529078471</v>
+        <v>0.2321969265348858</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>39.3596523797394</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H14">
-        <v>39.3596523797394</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I14">
-        <v>0.06804239418868824</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J14">
-        <v>0.06804239418868824</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.997386032128483</v>
+        <v>0.06171066666666666</v>
       </c>
       <c r="N14">
-        <v>0.997386032128483</v>
+        <v>0.185132</v>
       </c>
       <c r="O14">
-        <v>0.01575351394248427</v>
+        <v>0.0009194468265763251</v>
       </c>
       <c r="P14">
-        <v>0.01575351394248427</v>
+        <v>0.001054078307498645</v>
       </c>
       <c r="Q14">
-        <v>39.25676751298469</v>
+        <v>15.04683183516889</v>
       </c>
       <c r="R14">
-        <v>39.25676751298469</v>
+        <v>135.42148651652</v>
       </c>
       <c r="S14">
-        <v>0.001071906805531511</v>
+        <v>0.0003064315173121232</v>
       </c>
       <c r="T14">
-        <v>0.001071906805531511</v>
+        <v>0.000362161577957396</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>39.3596523797394</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H15">
-        <v>39.3596523797394</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I15">
-        <v>0.06804239418868824</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J15">
-        <v>0.06804239418868824</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>36.9720630093316</v>
+        <v>1.772676333333334</v>
       </c>
       <c r="N15">
-        <v>36.9720630093316</v>
+        <v>5.318029000000001</v>
       </c>
       <c r="O15">
-        <v>0.5839663794538508</v>
+        <v>0.0264116678245299</v>
       </c>
       <c r="P15">
-        <v>0.5839663794538508</v>
+        <v>0.03027903878070085</v>
       </c>
       <c r="Q15">
-        <v>1455.207547809114</v>
+        <v>432.2293717863546</v>
       </c>
       <c r="R15">
-        <v>1455.207547809114</v>
+        <v>3890.064346077191</v>
       </c>
       <c r="S15">
-        <v>0.03973447058374001</v>
+        <v>0.008802431214376086</v>
       </c>
       <c r="T15">
-        <v>0.03973447058374001</v>
+        <v>0.01040331101194387</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,55 +1402,55 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>39.3596523797394</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H16">
-        <v>39.3596523797394</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I16">
-        <v>0.06804239418868824</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J16">
-        <v>0.06804239418868824</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.4251159554415</v>
+        <v>24.7183095</v>
       </c>
       <c r="N16">
-        <v>1.4251159554415</v>
+        <v>49.436619</v>
       </c>
       <c r="O16">
-        <v>0.02250942298218628</v>
+        <v>0.3682859456189059</v>
       </c>
       <c r="P16">
-        <v>0.02250942298218628</v>
+        <v>0.2814752051723923</v>
       </c>
       <c r="Q16">
-        <v>56.09206860699763</v>
+        <v>6027.033353977015</v>
       </c>
       <c r="R16">
-        <v>56.09206860699763</v>
+        <v>36162.20012386209</v>
       </c>
       <c r="S16">
-        <v>0.001531595031513838</v>
+        <v>0.1227416505867543</v>
       </c>
       <c r="T16">
-        <v>0.001531595031513838</v>
+        <v>0.0967096123086154</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H17">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I17">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J17">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.9174069079012</v>
+        <v>0.9991829999999999</v>
       </c>
       <c r="N17">
-        <v>23.9174069079012</v>
+        <v>1.998366</v>
       </c>
       <c r="O17">
-        <v>0.3777706836214788</v>
+        <v>0.01488714493203248</v>
       </c>
       <c r="P17">
-        <v>0.3777706836214788</v>
+        <v>0.01137801272088475</v>
       </c>
       <c r="Q17">
-        <v>941.3808217197691</v>
+        <v>48.697475630802</v>
       </c>
       <c r="R17">
-        <v>941.3808217197691</v>
+        <v>292.184853784812</v>
       </c>
       <c r="S17">
-        <v>0.02570442176790289</v>
+        <v>0.0009917331110153465</v>
       </c>
       <c r="T17">
-        <v>0.02570442176790289</v>
+        <v>0.0007813983616924027</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>22.4013115348323</v>
+        <v>48.737294</v>
       </c>
       <c r="H18">
-        <v>22.4013115348323</v>
+        <v>146.211882</v>
       </c>
       <c r="I18">
-        <v>0.03872592306179204</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J18">
-        <v>0.03872592306179204</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.997386032128483</v>
+        <v>39.565288</v>
       </c>
       <c r="N18">
-        <v>0.997386032128483</v>
+        <v>118.695864</v>
       </c>
       <c r="O18">
-        <v>0.01575351394248427</v>
+        <v>0.5894957947979553</v>
       </c>
       <c r="P18">
-        <v>0.01575351394248427</v>
+        <v>0.6758136650185235</v>
       </c>
       <c r="Q18">
-        <v>22.3427552262004</v>
+        <v>1928.305073450672</v>
       </c>
       <c r="R18">
-        <v>22.3427552262004</v>
+        <v>17354.74566105605</v>
       </c>
       <c r="S18">
-        <v>0.0006100693688895141</v>
+        <v>0.03927028998337458</v>
       </c>
       <c r="T18">
-        <v>0.0006100693688895141</v>
+        <v>0.04641229568020285</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>22.4013115348323</v>
+        <v>48.737294</v>
       </c>
       <c r="H19">
-        <v>22.4013115348323</v>
+        <v>146.211882</v>
       </c>
       <c r="I19">
-        <v>0.03872592306179204</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J19">
-        <v>0.03872592306179204</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>36.9720630093316</v>
+        <v>0.06171066666666666</v>
       </c>
       <c r="N19">
-        <v>36.9720630093316</v>
+        <v>0.185132</v>
       </c>
       <c r="O19">
-        <v>0.5839663794538508</v>
+        <v>0.0009194468265763251</v>
       </c>
       <c r="P19">
-        <v>0.5839663794538508</v>
+        <v>0.001054078307498645</v>
       </c>
       <c r="Q19">
-        <v>828.2227015574865</v>
+        <v>3.007610904269333</v>
       </c>
       <c r="R19">
-        <v>828.2227015574865</v>
+        <v>27.068498138424</v>
       </c>
       <c r="S19">
-        <v>0.02261463708140308</v>
+        <v>6.125055313807819E-05</v>
       </c>
       <c r="T19">
-        <v>0.02261463708140308</v>
+        <v>7.239006343024146E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1653,57 +1653,57 @@
         <v>24</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>22.4013115348323</v>
+        <v>48.737294</v>
       </c>
       <c r="H20">
-        <v>22.4013115348323</v>
+        <v>146.211882</v>
       </c>
       <c r="I20">
-        <v>0.03872592306179204</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J20">
-        <v>0.03872592306179204</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.4251159554415</v>
+        <v>1.772676333333334</v>
       </c>
       <c r="N20">
-        <v>1.4251159554415</v>
+        <v>5.318029000000001</v>
       </c>
       <c r="O20">
-        <v>0.02250942298218628</v>
+        <v>0.0264116678245299</v>
       </c>
       <c r="P20">
-        <v>0.02250942298218628</v>
+        <v>0.03027903878070085</v>
       </c>
       <c r="Q20">
-        <v>31.92446649110523</v>
+        <v>86.39544762450869</v>
       </c>
       <c r="R20">
-        <v>31.92446649110523</v>
+        <v>777.5590286205781</v>
       </c>
       <c r="S20">
-        <v>0.0008716981825734796</v>
+        <v>0.001759459293122426</v>
       </c>
       <c r="T20">
-        <v>0.0008716981825734796</v>
+        <v>0.002079448483427304</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1715,57 +1715,57 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>22.4013115348323</v>
+        <v>48.737294</v>
       </c>
       <c r="H21">
-        <v>22.4013115348323</v>
+        <v>146.211882</v>
       </c>
       <c r="I21">
-        <v>0.03872592306179204</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J21">
-        <v>0.03872592306179204</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>23.9174069079012</v>
+        <v>24.7183095</v>
       </c>
       <c r="N21">
-        <v>23.9174069079012</v>
+        <v>49.436619</v>
       </c>
       <c r="O21">
-        <v>0.3777706836214788</v>
+        <v>0.3682859456189059</v>
       </c>
       <c r="P21">
-        <v>0.3777706836214788</v>
+        <v>0.2814752051723923</v>
       </c>
       <c r="Q21">
-        <v>535.7812832492449</v>
+        <v>1204.703517284493</v>
       </c>
       <c r="R21">
-        <v>535.7812832492449</v>
+        <v>7228.221103706958</v>
       </c>
       <c r="S21">
-        <v>0.01462951842892597</v>
+        <v>0.02453401026586241</v>
       </c>
       <c r="T21">
-        <v>0.01462951842892597</v>
+        <v>0.01933063967972409</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1777,57 +1777,57 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>21.7135627023294</v>
+        <v>22.832077</v>
       </c>
       <c r="H22">
-        <v>21.7135627023294</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I22">
-        <v>0.037536987836641</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J22">
-        <v>0.037536987836641</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.997386032128483</v>
+        <v>0.9991829999999999</v>
       </c>
       <c r="N22">
-        <v>0.997386032128483</v>
+        <v>1.998366</v>
       </c>
       <c r="O22">
-        <v>0.01575351394248427</v>
+        <v>0.01488714493203248</v>
       </c>
       <c r="P22">
-        <v>0.01575351394248427</v>
+        <v>0.01137801272088475</v>
       </c>
       <c r="Q22">
-        <v>21.65680414704934</v>
+        <v>22.813423193091</v>
       </c>
       <c r="R22">
-        <v>21.65680414704934</v>
+        <v>136.880539158546</v>
       </c>
       <c r="S22">
-        <v>0.0005913394612433866</v>
+        <v>0.0004645995888518542</v>
       </c>
       <c r="T22">
-        <v>0.0005913394612433866</v>
+        <v>0.000366063564420191</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1839,57 +1839,57 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>21.7135627023294</v>
+        <v>22.832077</v>
       </c>
       <c r="H23">
-        <v>21.7135627023294</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I23">
-        <v>0.037536987836641</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J23">
-        <v>0.037536987836641</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>36.9720630093316</v>
+        <v>39.565288</v>
       </c>
       <c r="N23">
-        <v>36.9720630093316</v>
+        <v>118.695864</v>
       </c>
       <c r="O23">
-        <v>0.5839663794538508</v>
+        <v>0.5894957947979553</v>
       </c>
       <c r="P23">
-        <v>0.5839663794538508</v>
+        <v>0.6758136650185235</v>
       </c>
       <c r="Q23">
-        <v>802.7952083875952</v>
+        <v>903.357702143176</v>
       </c>
       <c r="R23">
-        <v>802.7952083875952</v>
+        <v>8130.219319288583</v>
       </c>
       <c r="S23">
-        <v>0.02192033888256648</v>
+        <v>0.01839704692494288</v>
       </c>
       <c r="T23">
-        <v>0.02192033888256648</v>
+        <v>0.02174287946140709</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,117 +1898,489 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>21.7135627023294</v>
+        <v>22.832077</v>
       </c>
       <c r="H24">
-        <v>21.7135627023294</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I24">
-        <v>0.037536987836641</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J24">
-        <v>0.037536987836641</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>1.4251159554415</v>
+        <v>0.06171066666666666</v>
       </c>
       <c r="N24">
-        <v>1.4251159554415</v>
+        <v>0.185132</v>
       </c>
       <c r="O24">
-        <v>0.02250942298218628</v>
+        <v>0.0009194468265763251</v>
       </c>
       <c r="P24">
-        <v>0.02250942298218628</v>
+        <v>0.001054078307498645</v>
       </c>
       <c r="Q24">
-        <v>30.94434465656908</v>
+        <v>1.408982693054667</v>
       </c>
       <c r="R24">
-        <v>30.94434465656908</v>
+        <v>12.680844237492</v>
       </c>
       <c r="S24">
-        <v>0.000844935936692134</v>
+        <v>2.869419351721072E-05</v>
       </c>
       <c r="T24">
-        <v>0.000844935936692134</v>
+        <v>3.39127466181064E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>22.832077</v>
+      </c>
+      <c r="H25">
+        <v>68.49623099999999</v>
+      </c>
+      <c r="I25">
+        <v>0.03120810544755168</v>
+      </c>
+      <c r="J25">
+        <v>0.03217289111905</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.772676333333334</v>
+      </c>
+      <c r="N25">
+        <v>5.318029000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.0264116678245299</v>
+      </c>
+      <c r="P25">
+        <v>0.03027903878070085</v>
+      </c>
+      <c r="Q25">
+        <v>40.47388253874434</v>
+      </c>
+      <c r="R25">
+        <v>364.264942848699</v>
+      </c>
+      <c r="S25">
+        <v>0.000824258114513637</v>
+      </c>
+      <c r="T25">
+        <v>0.0009741642178809811</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>22.832077</v>
+      </c>
+      <c r="H26">
+        <v>68.49623099999999</v>
+      </c>
+      <c r="I26">
+        <v>0.03120810544755168</v>
+      </c>
+      <c r="J26">
+        <v>0.03217289111905</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>24.7183095</v>
+      </c>
+      <c r="N26">
+        <v>49.436619</v>
+      </c>
+      <c r="O26">
+        <v>0.3682859456189059</v>
+      </c>
+      <c r="P26">
+        <v>0.2814752051723923</v>
+      </c>
+      <c r="Q26">
+        <v>564.3703458138315</v>
+      </c>
+      <c r="R26">
+        <v>3386.222074882989</v>
+      </c>
+      <c r="S26">
+        <v>0.0114935066257261</v>
+      </c>
+      <c r="T26">
+        <v>0.009055871128723638</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>21.7135627023294</v>
-      </c>
-      <c r="H25">
-        <v>21.7135627023294</v>
-      </c>
-      <c r="I25">
-        <v>0.037536987836641</v>
-      </c>
-      <c r="J25">
-        <v>0.037536987836641</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>23.9174069079012</v>
-      </c>
-      <c r="N25">
-        <v>23.9174069079012</v>
-      </c>
-      <c r="O25">
-        <v>0.3777706836214788</v>
-      </c>
-      <c r="P25">
-        <v>0.3777706836214788</v>
-      </c>
-      <c r="Q25">
-        <v>519.332114571839</v>
-      </c>
-      <c r="R25">
-        <v>519.332114571839</v>
-      </c>
-      <c r="S25">
-        <v>0.014180373556139</v>
-      </c>
-      <c r="T25">
-        <v>0.014180373556139</v>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>25.082339</v>
+      </c>
+      <c r="H27">
+        <v>50.164678</v>
+      </c>
+      <c r="I27">
+        <v>0.03428388404538221</v>
+      </c>
+      <c r="J27">
+        <v>0.02356250409334498</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.9991829999999999</v>
+      </c>
+      <c r="N27">
+        <v>1.998366</v>
+      </c>
+      <c r="O27">
+        <v>0.01488714493203248</v>
+      </c>
+      <c r="P27">
+        <v>0.01137801272088475</v>
+      </c>
+      <c r="Q27">
+        <v>25.061846729037</v>
+      </c>
+      <c r="R27">
+        <v>100.247386916148</v>
+      </c>
+      <c r="S27">
+        <v>0.0005103891506166009</v>
+      </c>
+      <c r="T27">
+        <v>0.0002680944713099782</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>25.082339</v>
+      </c>
+      <c r="H28">
+        <v>50.164678</v>
+      </c>
+      <c r="I28">
+        <v>0.03428388404538221</v>
+      </c>
+      <c r="J28">
+        <v>0.02356250409334498</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>39.565288</v>
+      </c>
+      <c r="N28">
+        <v>118.695864</v>
+      </c>
+      <c r="O28">
+        <v>0.5894957947979553</v>
+      </c>
+      <c r="P28">
+        <v>0.6758136650185235</v>
+      </c>
+      <c r="Q28">
+        <v>992.389966248632</v>
+      </c>
+      <c r="R28">
+        <v>5954.339797491793</v>
+      </c>
+      <c r="S28">
+        <v>0.02021020547409353</v>
+      </c>
+      <c r="T28">
+        <v>0.01592386224833743</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>25.082339</v>
+      </c>
+      <c r="H29">
+        <v>50.164678</v>
+      </c>
+      <c r="I29">
+        <v>0.03428388404538221</v>
+      </c>
+      <c r="J29">
+        <v>0.02356250409334498</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.06171066666666666</v>
+      </c>
+      <c r="N29">
+        <v>0.185132</v>
+      </c>
+      <c r="O29">
+        <v>0.0009194468265763251</v>
+      </c>
+      <c r="P29">
+        <v>0.001054078307498645</v>
+      </c>
+      <c r="Q29">
+        <v>1.547847861249333</v>
+      </c>
+      <c r="R29">
+        <v>9.287087167496001</v>
+      </c>
+      <c r="S29">
+        <v>3.152220838823738E-05</v>
+      </c>
+      <c r="T29">
+        <v>2.483672443514296E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>25.082339</v>
+      </c>
+      <c r="H30">
+        <v>50.164678</v>
+      </c>
+      <c r="I30">
+        <v>0.03428388404538221</v>
+      </c>
+      <c r="J30">
+        <v>0.02356250409334498</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.772676333333334</v>
+      </c>
+      <c r="N30">
+        <v>5.318029000000001</v>
+      </c>
+      <c r="O30">
+        <v>0.0264116678245299</v>
+      </c>
+      <c r="P30">
+        <v>0.03027903878070085</v>
+      </c>
+      <c r="Q30">
+        <v>44.46286872994368</v>
+      </c>
+      <c r="R30">
+        <v>266.777212379662</v>
+      </c>
+      <c r="S30">
+        <v>0.0009054945571413352</v>
+      </c>
+      <c r="T30">
+        <v>0.0007134499752128151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>25.082339</v>
+      </c>
+      <c r="H31">
+        <v>50.164678</v>
+      </c>
+      <c r="I31">
+        <v>0.03428388404538221</v>
+      </c>
+      <c r="J31">
+        <v>0.02356250409334498</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>24.7183095</v>
+      </c>
+      <c r="N31">
+        <v>49.436619</v>
+      </c>
+      <c r="O31">
+        <v>0.3682859456189059</v>
+      </c>
+      <c r="P31">
+        <v>0.2814752051723923</v>
+      </c>
+      <c r="Q31">
+        <v>619.9930183859205</v>
+      </c>
+      <c r="R31">
+        <v>2479.972073543682</v>
+      </c>
+      <c r="S31">
+        <v>0.01262627265514251</v>
+      </c>
+      <c r="T31">
+        <v>0.006632260674049611</v>
       </c>
     </row>
   </sheetData>
